--- a/output/0/tRNA-Thr-AGT-2-1.xlsx
+++ b/output/0/tRNA-Thr-AGT-2-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>chr6</t>
   </si>
@@ -174,30 +174,6 @@
   </si>
   <si>
     <t>81</t>
-  </si>
-  <si>
-    <t>26533414</t>
-  </si>
-  <si>
-    <t>26533437</t>
-  </si>
-  <si>
-    <t>26533434</t>
-  </si>
-  <si>
-    <t>GGAGGTGGGGGGTGAGGGAA</t>
-  </si>
-  <si>
-    <t>14% (35)</t>
-  </si>
-  <si>
-    <t>100% (100)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>58</t>
   </si>
 </sst>
 </file>
@@ -242,7 +218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -602,65 +578,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S7" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
